--- a/nfl-demo/nfl-demo.xlsx
+++ b/nfl-demo/nfl-demo.xlsx
@@ -17,19 +17,19 @@
     <t>statename</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>pros</t>
   </si>
   <si>
-    <t>key</t>
+    <t>value</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>headline</t>
   </si>
   <si>
@@ -54,12 +54,12 @@
     <t>1305</t>
   </si>
   <si>
+    <t>Ohio</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
-    <t>Ohio</t>
-  </si>
-  <si>
     <t>1298</t>
   </si>
   <si>
@@ -117,6 +117,9 @@
     <t>573</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>New Jersey</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>428</t>
   </si>
   <si>
@@ -153,9 +153,15 @@
     <t>Massachusetts</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>390</t>
   </si>
   <si>
+    <t>Matt Stiles/The Daily Viz</t>
+  </si>
+  <si>
     <t>Indiana</t>
   </si>
   <si>
@@ -168,16 +174,10 @@
     <t>375</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
     <t>374</t>
-  </si>
-  <si>
-    <t>Matt Stiles/The Daily Viz</t>
   </si>
   <si>
     <t>South Carolina</t>
@@ -396,52 +396,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -451,15 +446,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -470,36 +468,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -535,7 +533,7 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>16</v>
@@ -597,7 +595,7 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
@@ -627,10 +625,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -944,6 +942,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,11 +957,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1015,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -1096,25 +1097,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>40</v>
@@ -1144,34 +1145,34 @@
         <v>45</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="12"/>
     </row>
